--- a/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -97,13 +97,13 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1153,25 +1153,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6796536796536796</v>
+        <v>0.67</v>
       </c>
       <c r="L19">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="M19">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1179,25 +1179,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.67</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1205,13 +1205,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6595744680851063</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1361,25 +1361,25 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5487804878048781</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L27">
         <v>180</v>
       </c>
       <c r="M27">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="10:17">
